--- a/medicine/Premiers secours et secourisme/Brevet_de_surveillant_de_baignade/Brevet_de_surveillant_de_baignade.xlsx
+++ b/medicine/Premiers secours et secourisme/Brevet_de_surveillant_de_baignade/Brevet_de_surveillant_de_baignade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le brevet de surveillant de baignade (BSB) est un brevet fédéral attribué par la fédération française de sauvetage et de secourisme, et qui permet la surveillance de la baignade en accueil collectif de mineurs. Il est soumis à un recyclage quinquennal. Historiquement, c'était le Ministère de la Jeunesse et des Sports qui présidait l'examen.
-Plusieurs conditions sont requises pour pouvoir se présenter à une session ; la formation d'environ 35  heures peut débuter dès 17 ans mais le BSB ne sera remise qu'aux candidats âgés de 18 ans ; il faut aussi être reconnu apte médicalement à la pratique de la natation et du sauvetage, et enfin avoir un minimum d’aptitude et d'entraînement à la natation. Le fait d'être titulaire du Prévention et secours civiques de niveau 1 (PSC1, ex-AFPS) est aussi obligatoire pour l'obtention de ce brevet[1]. 
+Plusieurs conditions sont requises pour pouvoir se présenter à une session ; la formation d'environ 35  heures peut débuter dès 17 ans mais le BSB ne sera remise qu'aux candidats âgés de 18 ans ; il faut aussi être reconnu apte médicalement à la pratique de la natation et du sauvetage, et enfin avoir un minimum d’aptitude et d'entraînement à la natation. Le fait d'être titulaire du Prévention et secours civiques de niveau 1 (PSC1, ex-AFPS) est aussi obligatoire pour l'obtention de ce brevet. 
 Le surveillant de baignade est sous la responsabilité hiérarchique du directeur de l'accueil collectif de mineurs (ACM).
 </t>
         </is>
@@ -516,18 +528,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rôle et missions
-Avant même l'aspect de surveillance, une baignade doit être avant tout bien préparée. C'est pourquoi le surveillant de baignade (SB) travaille toujours en deux temps :
+          <t>Rôle et missions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Avant même l'aspect de surveillance, une baignade doit être avant tout bien préparée. C'est pourquoi le surveillant de baignade (SB) travaille toujours en deux temps :
 Il prépare la baignade : faire le point avec l'équipe d'animation, connaître les appréhensions des enfants, aménager la zone des activités de baignade.
-Il surveille la baignade : assurer la sécurité de tout le groupe, faire respecter les règles en développant un esprit de prévention chez les jeunes, conserver ses capacités d'intervention.
-Objectifs
-À l’issue de la formation on est capable de :
+Il surveille la baignade : assurer la sécurité de tout le groupe, faire respecter les règles en développant un esprit de prévention chez les jeunes, conserver ses capacités d'intervention.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brevet_de_surveillant_de_baignade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_de_surveillant_de_baignade</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Enseignement dispensé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À l’issue de la formation on est capable de :
 déterminer les risques de noyades et d'accidents dans les différentes situations,
 porter assistance à un baigneur en détresse et prodiguer les gestes de secours nécessaires,
 organiser les baignades des enfants en collaboration avec l'équipe d'animation,
-connaître et faire respecter la réglementation des baignades dans les lieux aménagés ou non aménagés,
-Contenu de la formation
-Rôle et fonction du surveillant de baignade
+connaître et faire respecter la réglementation des baignades dans les lieux aménagés ou non aménagés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brevet_de_surveillant_de_baignade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brevet_de_surveillant_de_baignade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Enseignement dispensé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contenu de la formation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rôle et fonction du surveillant de baignade
 La réglementation des baignades
 Organiser les baignades
 Prévenir les risques de noyade
@@ -539,31 +624,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Brevet_de_surveillant_de_baignade</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brevet_de_surveillant_de_baignade</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>L'examen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les modalités de réussites de l'examen sont les suivantes depuis le 1er janvier 2010 ;
 Quatre épreuves éliminatoires (pratiques, sans échauffement) :
@@ -577,31 +664,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Brevet_de_surveillant_de_baignade</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brevet_de_surveillant_de_baignade</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Recyclage quinquennal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce brevet nécessite une révision pour conserver sa validité. Cette remise à niveau permet d'apprécier les titulaires sur plusieurs points.
 3 épreuves éliminatoires (identiques aux épreuves au-dessus): 
